--- a/database/industries/folad/fejahan/product/yearly_seprated.xlsx
+++ b/database/industries/folad/fejahan/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fejahan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693AD5AB-FD62-4A23-A166-5D1FF74A6692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F89C33-BA9B-429C-A112-03B820BD407F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -664,12 +664,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -679,7 +679,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -691,7 +691,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -703,7 +703,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -713,7 +713,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -747,7 +747,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -769,7 +769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -779,7 +779,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -815,7 +815,7 @@
         <v>25959</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -863,7 +863,7 @@
         <v>331833</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -911,7 +911,7 @@
         <v>234498</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -935,7 +935,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -959,7 +959,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -983,7 +983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>23999</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>621596</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>14</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>239674</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>24</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>239674</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>25</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>26</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>27</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>29</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>30</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>861270</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1223,7 +1223,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1233,7 +1233,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1243,7 +1243,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>31</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1275,7 +1275,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>11</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>427856</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>14</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>15</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>42604283</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>16</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>17</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>32835186</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>18</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>206693</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>19</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>67295</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>20</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>21</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>818373</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>22</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>76959686</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>34</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>14</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>31523007</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>24</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>31523007</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>35</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>26</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
         <v>27</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>29</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
         <v>30</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>108482693</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1721,7 +1721,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1731,7 +1731,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1741,7 +1741,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>36</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1773,7 +1773,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>37</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>11</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>16481991</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>14</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>15</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>128390736</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>16</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>17</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>140023309</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>18</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>60102646</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>19</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>36025161</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>20</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>21</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>34100296</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>39</v>
       </c>
@@ -2013,7 +2013,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>14</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>15</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>131524517</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2071,7 +2071,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2081,7 +2081,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2091,7 +2091,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
         <v>40</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2123,7 +2123,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>41</v>
       </c>
@@ -2135,7 +2135,7 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>11</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>-111654</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>14</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>15</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>-36146416</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>16</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>17</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>-25998544</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>18</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>-59430</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>19</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>-59564</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>20</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>21</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>-1056931</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
         <v>42</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>-63432539</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>43</v>
       </c>
@@ -2385,7 +2385,7 @@
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>14</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
         <v>15</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>-26107530</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="16" t="s">
         <v>44</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>-26107530</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
         <v>45</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="16" t="s">
         <v>46</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
         <v>27</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="16" t="s">
         <v>29</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
         <v>30</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>-89540069</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2569,7 +2569,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2579,7 +2579,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2589,7 +2589,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
         <v>47</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2621,7 +2621,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>48</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>11</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>316202</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
         <v>14</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
         <v>15</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>6457867</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
         <v>16</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
         <v>17</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>6836642</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
         <v>18</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>147263</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>19</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>7731</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
         <v>20</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
         <v>21</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>-238558</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="14" t="s">
         <v>49</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>13527147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
         <v>50</v>
       </c>
@@ -2883,7 +2883,7 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
         <v>14</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
         <v>15</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>5415477</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="16" t="s">
         <v>51</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>5415477</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="18" t="s">
         <v>52</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="16" t="s">
         <v>53</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="14" t="s">
         <v>30</v>
       </c>

--- a/database/industries/folad/fejahan/product/yearly_seprated.xlsx
+++ b/database/industries/folad/fejahan/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F89C33-BA9B-429C-A112-03B820BD407F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700DBBA0-B7EC-49A0-86B6-C619C380CABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -664,12 +664,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -679,7 +679,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -691,7 +691,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -703,7 +703,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -713,7 +713,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -747,7 +747,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -769,7 +769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -779,7 +779,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -802,20 +802,20 @@
       <c r="E11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
+      <c r="F11" s="11">
+        <v>8416</v>
       </c>
       <c r="G11" s="11">
-        <v>8416</v>
+        <v>22675</v>
       </c>
       <c r="H11" s="11">
-        <v>22675</v>
+        <v>25959</v>
       </c>
       <c r="I11" s="11">
-        <v>25959</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>81235</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -823,14 +823,14 @@
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>858688</v>
       </c>
       <c r="F12" s="13">
-        <v>858688</v>
+        <v>362643</v>
       </c>
       <c r="G12" s="13">
-        <v>362643</v>
+        <v>0</v>
       </c>
       <c r="H12" s="13">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -850,20 +850,20 @@
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
+      <c r="F13" s="11">
+        <v>129765</v>
       </c>
       <c r="G13" s="11">
-        <v>129765</v>
+        <v>356586</v>
       </c>
       <c r="H13" s="11">
-        <v>356586</v>
+        <v>331833</v>
       </c>
       <c r="I13" s="11">
-        <v>331833</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>479881</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -880,14 +880,14 @@
       <c r="G14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>13</v>
+      <c r="H14" s="13">
+        <v>0</v>
       </c>
       <c r="I14" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -895,23 +895,23 @@
         <v>12</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>13</v>
+      <c r="E15" s="11">
+        <v>58767</v>
       </c>
       <c r="F15" s="11">
-        <v>58767</v>
+        <v>138826</v>
       </c>
       <c r="G15" s="11">
-        <v>138826</v>
+        <v>272867</v>
       </c>
       <c r="H15" s="11">
-        <v>272867</v>
+        <v>234498</v>
       </c>
       <c r="I15" s="11">
-        <v>234498</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>322124</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -925,17 +925,17 @@
       <c r="F16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>13</v>
+      <c r="G16" s="13">
+        <v>823</v>
       </c>
       <c r="H16" s="13">
-        <v>823</v>
+        <v>3439</v>
       </c>
       <c r="I16" s="13">
-        <v>3439</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -946,20 +946,20 @@
       <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
+      <c r="F17" s="11">
+        <v>556</v>
       </c>
       <c r="G17" s="11">
-        <v>556</v>
+        <v>2944</v>
       </c>
       <c r="H17" s="11">
-        <v>2944</v>
+        <v>1868</v>
       </c>
       <c r="I17" s="11">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17766</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -967,23 +967,23 @@
         <v>12</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>13</v>
+      <c r="E18" s="13">
+        <v>55872</v>
       </c>
       <c r="F18" s="13">
-        <v>55872</v>
+        <v>72598</v>
       </c>
       <c r="G18" s="13">
-        <v>72598</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1000,36 +1000,36 @@
       <c r="G19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>13</v>
+      <c r="H19" s="11">
+        <v>23999</v>
       </c>
       <c r="I19" s="11">
-        <v>23999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19961</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15">
-        <v>0</v>
+        <v>973327</v>
       </c>
       <c r="F20" s="15">
-        <v>973327</v>
+        <v>712804</v>
       </c>
       <c r="G20" s="15">
-        <v>712804</v>
+        <v>655895</v>
       </c>
       <c r="H20" s="15">
-        <v>655895</v>
+        <v>621596</v>
       </c>
       <c r="I20" s="15">
-        <v>621596</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>925115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>14</v>
       </c>
@@ -1049,23 +1049,23 @@
         <v>12</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>13</v>
+      <c r="E22" s="11">
+        <v>39839</v>
       </c>
       <c r="F22" s="11">
-        <v>39839</v>
+        <v>8468</v>
       </c>
       <c r="G22" s="11">
-        <v>8468</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
@@ -1076,42 +1076,42 @@
       <c r="E23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>13</v>
+      <c r="F23" s="13">
+        <v>69992</v>
       </c>
       <c r="G23" s="13">
-        <v>69992</v>
+        <v>131787</v>
       </c>
       <c r="H23" s="13">
-        <v>131787</v>
+        <v>239674</v>
       </c>
       <c r="I23" s="13">
-        <v>239674</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>89963</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17">
-        <v>0</v>
+        <v>39839</v>
       </c>
       <c r="F24" s="17">
-        <v>39839</v>
+        <v>78460</v>
       </c>
       <c r="G24" s="17">
-        <v>78460</v>
+        <v>131787</v>
       </c>
       <c r="H24" s="17">
-        <v>131787</v>
+        <v>239674</v>
       </c>
       <c r="I24" s="17">
-        <v>239674</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>89963</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
         <v>25</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>26</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>27</v>
       </c>
@@ -1159,24 +1159,24 @@
       <c r="F27" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="15">
-        <v>0</v>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
-        <v>13</v>
+      <c r="E28" s="17">
+        <v>0</v>
       </c>
       <c r="F28" s="17">
         <v>0</v>
@@ -1191,29 +1191,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
-        <v>0</v>
+        <v>1013166</v>
       </c>
       <c r="F29" s="15">
-        <v>1013166</v>
+        <v>791264</v>
       </c>
       <c r="G29" s="15">
-        <v>791264</v>
+        <v>787682</v>
       </c>
       <c r="H29" s="15">
-        <v>787682</v>
+        <v>861270</v>
       </c>
       <c r="I29" s="15">
-        <v>861270</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1015078</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1223,7 +1223,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1233,7 +1233,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1243,7 +1243,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>31</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1275,7 +1275,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>11</v>
       </c>
@@ -1298,20 +1298,20 @@
       <c r="E36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>13</v>
+      <c r="F36" s="11">
+        <v>7046</v>
       </c>
       <c r="G36" s="11">
-        <v>7046</v>
+        <v>37487</v>
       </c>
       <c r="H36" s="11">
-        <v>37487</v>
+        <v>427856</v>
       </c>
       <c r="I36" s="11">
-        <v>427856</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1452581</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>14</v>
       </c>
@@ -1319,14 +1319,14 @@
         <v>33</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>13</v>
+      <c r="E37" s="13">
+        <v>12411367</v>
       </c>
       <c r="F37" s="13">
-        <v>12411367</v>
+        <v>6614336</v>
       </c>
       <c r="G37" s="13">
-        <v>6614336</v>
+        <v>0</v>
       </c>
       <c r="H37" s="13">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>15</v>
       </c>
@@ -1346,20 +1346,20 @@
       <c r="E38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>13</v>
+      <c r="F38" s="11">
+        <v>5625244</v>
       </c>
       <c r="G38" s="11">
-        <v>5625244</v>
+        <v>29293527</v>
       </c>
       <c r="H38" s="11">
-        <v>29293527</v>
+        <v>42604283</v>
       </c>
       <c r="I38" s="11">
-        <v>42604283</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>73353787</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>16</v>
       </c>
@@ -1376,14 +1376,14 @@
       <c r="G39" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>13</v>
+      <c r="H39" s="13">
+        <v>0</v>
       </c>
       <c r="I39" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>17</v>
       </c>
@@ -1391,23 +1391,23 @@
         <v>33</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>13</v>
+      <c r="E40" s="11">
+        <v>2000575</v>
       </c>
       <c r="F40" s="11">
-        <v>2000575</v>
+        <v>6140425</v>
       </c>
       <c r="G40" s="11">
-        <v>6140425</v>
+        <v>24378956</v>
       </c>
       <c r="H40" s="11">
-        <v>24378956</v>
+        <v>32835186</v>
       </c>
       <c r="I40" s="11">
-        <v>32835186</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51805234</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>18</v>
       </c>
@@ -1421,17 +1421,17 @@
       <c r="F41" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>13</v>
+      <c r="G41" s="13">
+        <v>40823</v>
       </c>
       <c r="H41" s="13">
-        <v>40823</v>
+        <v>206693</v>
       </c>
       <c r="I41" s="13">
-        <v>206693</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>360428</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>19</v>
       </c>
@@ -1442,20 +1442,20 @@
       <c r="E42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>13</v>
+      <c r="F42" s="11">
+        <v>9007</v>
       </c>
       <c r="G42" s="11">
-        <v>9007</v>
+        <v>47693</v>
       </c>
       <c r="H42" s="11">
-        <v>47693</v>
+        <v>67295</v>
       </c>
       <c r="I42" s="11">
-        <v>67295</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1080376</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>20</v>
       </c>
@@ -1463,23 +1463,23 @@
         <v>33</v>
       </c>
       <c r="D43" s="13"/>
-      <c r="E43" s="13" t="s">
-        <v>13</v>
+      <c r="E43" s="13">
+        <v>105122</v>
       </c>
       <c r="F43" s="13">
-        <v>105122</v>
+        <v>291496</v>
       </c>
       <c r="G43" s="13">
-        <v>291496</v>
-      </c>
-      <c r="H43" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="I43" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>21</v>
       </c>
@@ -1496,36 +1496,36 @@
       <c r="G44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="11" t="s">
-        <v>13</v>
+      <c r="H44" s="11">
+        <v>818373</v>
       </c>
       <c r="I44" s="11">
-        <v>818373</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>992143</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>0</v>
+        <v>14517064</v>
       </c>
       <c r="F45" s="15">
-        <v>14517064</v>
+        <v>18687554</v>
       </c>
       <c r="G45" s="15">
-        <v>18687554</v>
+        <v>53798486</v>
       </c>
       <c r="H45" s="15">
-        <v>53798486</v>
+        <v>76959686</v>
       </c>
       <c r="I45" s="15">
-        <v>76959686</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>129044549</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>34</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>14</v>
       </c>
@@ -1545,23 +1545,23 @@
         <v>33</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>13</v>
+      <c r="E47" s="11">
+        <v>996191</v>
       </c>
       <c r="F47" s="11">
-        <v>996191</v>
+        <v>183718</v>
       </c>
       <c r="G47" s="11">
-        <v>183718</v>
-      </c>
-      <c r="H47" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
@@ -1572,42 +1572,42 @@
       <c r="E48" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>13</v>
+      <c r="F48" s="13">
+        <v>3696420</v>
       </c>
       <c r="G48" s="13">
-        <v>3696420</v>
+        <v>13620098</v>
       </c>
       <c r="H48" s="13">
-        <v>13620098</v>
+        <v>31523007</v>
       </c>
       <c r="I48" s="13">
-        <v>31523007</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12668852</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17">
-        <v>0</v>
+        <v>996191</v>
       </c>
       <c r="F49" s="17">
-        <v>996191</v>
+        <v>3880138</v>
       </c>
       <c r="G49" s="17">
-        <v>3880138</v>
+        <v>13620098</v>
       </c>
       <c r="H49" s="17">
-        <v>13620098</v>
+        <v>31523007</v>
       </c>
       <c r="I49" s="17">
-        <v>31523007</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12668852</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="18" t="s">
         <v>35</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>26</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>27</v>
       </c>
@@ -1655,17 +1655,17 @@
       <c r="F52" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="15">
-        <v>0</v>
+      <c r="G52" s="15">
+        <v>0</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="I52" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="16" t="s">
         <v>29</v>
       </c>
@@ -1673,14 +1673,14 @@
         <v>33</v>
       </c>
       <c r="D53" s="17"/>
-      <c r="E53" s="17" t="s">
-        <v>13</v>
+      <c r="E53" s="17">
+        <v>-9315</v>
       </c>
       <c r="F53" s="17">
-        <v>-9315</v>
+        <v>-87653</v>
       </c>
       <c r="G53" s="17">
-        <v>-87653</v>
+        <v>0</v>
       </c>
       <c r="H53" s="17">
         <v>0</v>
@@ -1689,29 +1689,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
-        <v>0</v>
+        <v>15503940</v>
       </c>
       <c r="F54" s="15">
-        <v>15503940</v>
+        <v>22480039</v>
       </c>
       <c r="G54" s="15">
-        <v>22480039</v>
+        <v>67418584</v>
       </c>
       <c r="H54" s="15">
-        <v>67418584</v>
+        <v>108482693</v>
       </c>
       <c r="I54" s="15">
-        <v>108482693</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>141713401</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1721,7 +1721,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1731,7 +1731,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1741,7 +1741,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>36</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1773,7 +1773,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>37</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>11</v>
       </c>
@@ -1796,20 +1796,20 @@
       <c r="E61" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="11" t="s">
-        <v>13</v>
+      <c r="F61" s="11">
+        <v>837215</v>
       </c>
       <c r="G61" s="11">
-        <v>837215</v>
+        <v>1653230</v>
       </c>
       <c r="H61" s="11">
-        <v>1653230</v>
+        <v>16481991</v>
       </c>
       <c r="I61" s="11">
-        <v>16481991</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17881221</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>14</v>
       </c>
@@ -1817,14 +1817,14 @@
         <v>38</v>
       </c>
       <c r="D62" s="13"/>
-      <c r="E62" s="13" t="s">
-        <v>13</v>
+      <c r="E62" s="13">
+        <v>14453873</v>
       </c>
       <c r="F62" s="13">
-        <v>14453873</v>
+        <v>18239249</v>
       </c>
       <c r="G62" s="13">
-        <v>18239249</v>
+        <v>0</v>
       </c>
       <c r="H62" s="13">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>15</v>
       </c>
@@ -1844,20 +1844,20 @@
       <c r="E63" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="11" t="s">
-        <v>13</v>
+      <c r="F63" s="11">
+        <v>43349470</v>
       </c>
       <c r="G63" s="11">
-        <v>43349470</v>
+        <v>82149964</v>
       </c>
       <c r="H63" s="11">
-        <v>82149964</v>
+        <v>128390736</v>
       </c>
       <c r="I63" s="11">
-        <v>128390736</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>152858286</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>16</v>
       </c>
@@ -1874,14 +1874,14 @@
       <c r="G64" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>13</v>
+      <c r="H64" s="13">
+        <v>0</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>17</v>
       </c>
@@ -1889,23 +1889,23 @@
         <v>38</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>13</v>
+      <c r="E65" s="11">
+        <v>34042490</v>
       </c>
       <c r="F65" s="11">
-        <v>34042490</v>
+        <v>44231088</v>
       </c>
       <c r="G65" s="11">
-        <v>44231088</v>
+        <v>89343732</v>
       </c>
       <c r="H65" s="11">
-        <v>89343732</v>
+        <v>140023309</v>
       </c>
       <c r="I65" s="11">
-        <v>140023309</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>160823888</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>18</v>
       </c>
@@ -1919,17 +1919,17 @@
       <c r="F66" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="13" t="s">
-        <v>13</v>
+      <c r="G66" s="13">
+        <v>49602673</v>
       </c>
       <c r="H66" s="13">
-        <v>49602673</v>
+        <v>60102646</v>
       </c>
       <c r="I66" s="13">
-        <v>60102646</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>86891996</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>19</v>
       </c>
@@ -1940,20 +1940,20 @@
       <c r="E67" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="11" t="s">
-        <v>13</v>
+      <c r="F67" s="11">
+        <v>16199640</v>
       </c>
       <c r="G67" s="11">
-        <v>16199640</v>
+        <v>16200068</v>
       </c>
       <c r="H67" s="11">
-        <v>16200068</v>
+        <v>36025161</v>
       </c>
       <c r="I67" s="11">
-        <v>36025161</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60811438</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>20</v>
       </c>
@@ -1961,23 +1961,23 @@
         <v>38</v>
       </c>
       <c r="D68" s="13"/>
-      <c r="E68" s="13" t="s">
-        <v>13</v>
+      <c r="E68" s="13">
+        <v>1881479</v>
       </c>
       <c r="F68" s="13">
-        <v>1881479</v>
+        <v>4015207</v>
       </c>
       <c r="G68" s="13">
-        <v>4015207</v>
-      </c>
-      <c r="H68" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="I68" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>21</v>
       </c>
@@ -1994,14 +1994,14 @@
       <c r="G69" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>13</v>
+      <c r="H69" s="11">
+        <v>34100296</v>
       </c>
       <c r="I69" s="11">
-        <v>34100296</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>49704073</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>39</v>
       </c>
@@ -2013,7 +2013,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>14</v>
       </c>
@@ -2021,23 +2021,23 @@
         <v>38</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="11" t="s">
-        <v>13</v>
+      <c r="E71" s="11">
+        <v>25005422</v>
       </c>
       <c r="F71" s="11">
-        <v>25005422</v>
+        <v>21695560</v>
       </c>
       <c r="G71" s="11">
-        <v>21695560</v>
-      </c>
-      <c r="H71" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>15</v>
       </c>
@@ -2048,20 +2048,20 @@
       <c r="E72" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="13" t="s">
-        <v>13</v>
+      <c r="F72" s="13">
+        <v>52812036</v>
       </c>
       <c r="G72" s="13">
-        <v>52812036</v>
+        <v>103349329</v>
       </c>
       <c r="H72" s="13">
-        <v>103349329</v>
+        <v>131524517</v>
       </c>
       <c r="I72" s="13">
-        <v>131524517</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>140822916</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2071,7 +2071,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2081,7 +2081,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2091,7 +2091,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>40</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2123,7 +2123,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>41</v>
       </c>
@@ -2135,7 +2135,7 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>11</v>
       </c>
@@ -2146,20 +2146,20 @@
       <c r="E79" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="11" t="s">
-        <v>13</v>
+      <c r="F79" s="11">
+        <v>-8</v>
       </c>
       <c r="G79" s="11">
-        <v>-8</v>
+        <v>-12360</v>
       </c>
       <c r="H79" s="11">
-        <v>-12360</v>
+        <v>-111654</v>
       </c>
       <c r="I79" s="11">
-        <v>-111654</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-847948</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>14</v>
       </c>
@@ -2167,14 +2167,14 @@
         <v>33</v>
       </c>
       <c r="D80" s="13"/>
-      <c r="E80" s="13" t="s">
-        <v>13</v>
+      <c r="E80" s="13">
+        <v>-10018388</v>
       </c>
       <c r="F80" s="13">
-        <v>-10018388</v>
+        <v>-5728490</v>
       </c>
       <c r="G80" s="13">
-        <v>-5728490</v>
+        <v>0</v>
       </c>
       <c r="H80" s="13">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>15</v>
       </c>
@@ -2194,20 +2194,20 @@
       <c r="E81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="11" t="s">
-        <v>13</v>
+      <c r="F81" s="11">
+        <v>-4525514</v>
       </c>
       <c r="G81" s="11">
-        <v>-4525514</v>
+        <v>-20301116</v>
       </c>
       <c r="H81" s="11">
-        <v>-20301116</v>
+        <v>-36146416</v>
       </c>
       <c r="I81" s="11">
-        <v>-36146416</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-57049328</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>16</v>
       </c>
@@ -2224,14 +2224,14 @@
       <c r="G82" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H82" s="13" t="s">
-        <v>13</v>
+      <c r="H82" s="13">
+        <v>0</v>
       </c>
       <c r="I82" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>17</v>
       </c>
@@ -2239,23 +2239,23 @@
         <v>33</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
-        <v>13</v>
+      <c r="E83" s="11">
+        <v>-1870035</v>
       </c>
       <c r="F83" s="11">
-        <v>-1870035</v>
+        <v>-5444712</v>
       </c>
       <c r="G83" s="11">
-        <v>-5444712</v>
+        <v>-16619160</v>
       </c>
       <c r="H83" s="11">
-        <v>-16619160</v>
+        <v>-25998544</v>
       </c>
       <c r="I83" s="11">
-        <v>-25998544</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-40988824</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>18</v>
       </c>
@@ -2269,17 +2269,17 @@
       <c r="F84" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G84" s="13" t="s">
-        <v>13</v>
+      <c r="G84" s="13">
+        <v>-8523</v>
       </c>
       <c r="H84" s="13">
-        <v>-8523</v>
+        <v>-59430</v>
       </c>
       <c r="I84" s="13">
-        <v>-59430</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-61898</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>19</v>
       </c>
@@ -2290,20 +2290,20 @@
       <c r="E85" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="11" t="s">
-        <v>13</v>
+      <c r="F85" s="11">
+        <v>-9007</v>
       </c>
       <c r="G85" s="11">
-        <v>-9007</v>
+        <v>-47693</v>
       </c>
       <c r="H85" s="11">
-        <v>-47693</v>
+        <v>-59564</v>
       </c>
       <c r="I85" s="11">
-        <v>-59564</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-733998</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>20</v>
       </c>
@@ -2311,23 +2311,23 @@
         <v>33</v>
       </c>
       <c r="D86" s="13"/>
-      <c r="E86" s="13" t="s">
-        <v>13</v>
+      <c r="E86" s="13">
+        <v>-189491</v>
       </c>
       <c r="F86" s="13">
-        <v>-189491</v>
+        <v>-309096</v>
       </c>
       <c r="G86" s="13">
-        <v>-309096</v>
-      </c>
-      <c r="H86" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="I86" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>21</v>
       </c>
@@ -2344,36 +2344,36 @@
       <c r="G87" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H87" s="11" t="s">
-        <v>13</v>
+      <c r="H87" s="11">
+        <v>-1056931</v>
       </c>
       <c r="I87" s="11">
-        <v>-1056931</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1249705</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15">
-        <v>0</v>
+        <v>-12077914</v>
       </c>
       <c r="F88" s="15">
-        <v>-12077914</v>
+        <v>-16016827</v>
       </c>
       <c r="G88" s="15">
-        <v>-16016827</v>
+        <v>-36988852</v>
       </c>
       <c r="H88" s="15">
-        <v>-36988852</v>
+        <v>-63432539</v>
       </c>
       <c r="I88" s="15">
-        <v>-63432539</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-100931701</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>43</v>
       </c>
@@ -2385,7 +2385,7 @@
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>14</v>
       </c>
@@ -2393,23 +2393,23 @@
         <v>33</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="11" t="s">
-        <v>13</v>
+      <c r="E90" s="11">
+        <v>-464330</v>
       </c>
       <c r="F90" s="11">
-        <v>-464330</v>
+        <v>-133765</v>
       </c>
       <c r="G90" s="11">
-        <v>-133765</v>
-      </c>
-      <c r="H90" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I90" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>15</v>
       </c>
@@ -2420,42 +2420,42 @@
       <c r="E91" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="13" t="s">
-        <v>13</v>
+      <c r="F91" s="13">
+        <v>-2440949</v>
       </c>
       <c r="G91" s="13">
-        <v>-2440949</v>
+        <v>-7502883</v>
       </c>
       <c r="H91" s="13">
-        <v>-7502883</v>
+        <v>-26107530</v>
       </c>
       <c r="I91" s="13">
-        <v>-26107530</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-10697474</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
       <c r="E92" s="17">
-        <v>0</v>
+        <v>-464330</v>
       </c>
       <c r="F92" s="17">
-        <v>-464330</v>
+        <v>-2574714</v>
       </c>
       <c r="G92" s="17">
-        <v>-2574714</v>
+        <v>-7502883</v>
       </c>
       <c r="H92" s="17">
-        <v>-7502883</v>
+        <v>-26107530</v>
       </c>
       <c r="I92" s="17">
-        <v>-26107530</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-10697474</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="18" t="s">
         <v>45</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="16" t="s">
         <v>46</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>27</v>
       </c>
@@ -2503,17 +2503,17 @@
       <c r="F95" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G95" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="15">
-        <v>0</v>
+      <c r="G95" s="15">
+        <v>0</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="I95" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="16" t="s">
         <v>29</v>
       </c>
@@ -2521,8 +2521,8 @@
         <v>33</v>
       </c>
       <c r="D96" s="17"/>
-      <c r="E96" s="17" t="s">
-        <v>13</v>
+      <c r="E96" s="17">
+        <v>0</v>
       </c>
       <c r="F96" s="17">
         <v>0</v>
@@ -2537,29 +2537,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15">
-        <v>0</v>
+        <v>-12542244</v>
       </c>
       <c r="F97" s="15">
-        <v>-12542244</v>
+        <v>-18591541</v>
       </c>
       <c r="G97" s="15">
-        <v>-18591541</v>
+        <v>-44491735</v>
       </c>
       <c r="H97" s="15">
-        <v>-44491735</v>
+        <v>-89540069</v>
       </c>
       <c r="I97" s="15">
-        <v>-89540069</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-111629175</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2569,7 +2569,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2579,7 +2579,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2589,7 +2589,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>47</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2621,7 +2621,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>48</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>11</v>
       </c>
@@ -2644,20 +2644,20 @@
       <c r="E104" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="11" t="s">
-        <v>13</v>
+      <c r="F104" s="11">
+        <v>7038</v>
       </c>
       <c r="G104" s="11">
-        <v>7038</v>
+        <v>25127</v>
       </c>
       <c r="H104" s="11">
-        <v>25127</v>
+        <v>316202</v>
       </c>
       <c r="I104" s="11">
-        <v>316202</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>604633</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="12" t="s">
         <v>14</v>
       </c>
@@ -2665,14 +2665,14 @@
         <v>33</v>
       </c>
       <c r="D105" s="13"/>
-      <c r="E105" s="13" t="s">
-        <v>13</v>
+      <c r="E105" s="13">
+        <v>2392979</v>
       </c>
       <c r="F105" s="13">
-        <v>2392979</v>
+        <v>885846</v>
       </c>
       <c r="G105" s="13">
-        <v>885846</v>
+        <v>0</v>
       </c>
       <c r="H105" s="13">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>15</v>
       </c>
@@ -2692,20 +2692,20 @@
       <c r="E106" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F106" s="11" t="s">
-        <v>13</v>
+      <c r="F106" s="11">
+        <v>1099730</v>
       </c>
       <c r="G106" s="11">
-        <v>1099730</v>
+        <v>8992411</v>
       </c>
       <c r="H106" s="11">
-        <v>8992411</v>
+        <v>6457867</v>
       </c>
       <c r="I106" s="11">
-        <v>6457867</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16304459</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="12" t="s">
         <v>16</v>
       </c>
@@ -2722,14 +2722,14 @@
       <c r="G107" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H107" s="13" t="s">
-        <v>13</v>
+      <c r="H107" s="13">
+        <v>0</v>
       </c>
       <c r="I107" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>17</v>
       </c>
@@ -2737,23 +2737,23 @@
         <v>33</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
-        <v>13</v>
+      <c r="E108" s="11">
+        <v>130540</v>
       </c>
       <c r="F108" s="11">
-        <v>130540</v>
+        <v>695713</v>
       </c>
       <c r="G108" s="11">
-        <v>695713</v>
+        <v>7759796</v>
       </c>
       <c r="H108" s="11">
-        <v>7759796</v>
+        <v>6836642</v>
       </c>
       <c r="I108" s="11">
-        <v>6836642</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10816410</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="12" t="s">
         <v>18</v>
       </c>
@@ -2767,17 +2767,17 @@
       <c r="F109" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G109" s="13" t="s">
-        <v>13</v>
+      <c r="G109" s="13">
+        <v>32300</v>
       </c>
       <c r="H109" s="13">
-        <v>32300</v>
+        <v>147263</v>
       </c>
       <c r="I109" s="13">
-        <v>147263</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>298530</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>19</v>
       </c>
@@ -2788,20 +2788,20 @@
       <c r="E110" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="11" t="s">
-        <v>13</v>
+      <c r="F110" s="11">
+        <v>0</v>
       </c>
       <c r="G110" s="11">
         <v>0</v>
       </c>
       <c r="H110" s="11">
-        <v>0</v>
+        <v>7731</v>
       </c>
       <c r="I110" s="11">
-        <v>7731</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>346378</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>20</v>
       </c>
@@ -2809,23 +2809,23 @@
         <v>33</v>
       </c>
       <c r="D111" s="13"/>
-      <c r="E111" s="13" t="s">
-        <v>13</v>
+      <c r="E111" s="13">
+        <v>-84369</v>
       </c>
       <c r="F111" s="13">
-        <v>-84369</v>
+        <v>-17600</v>
       </c>
       <c r="G111" s="13">
-        <v>-17600</v>
-      </c>
-      <c r="H111" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="I111" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>21</v>
       </c>
@@ -2842,36 +2842,36 @@
       <c r="G112" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H112" s="11" t="s">
-        <v>13</v>
+      <c r="H112" s="11">
+        <v>-238558</v>
       </c>
       <c r="I112" s="11">
-        <v>-238558</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-257562</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15">
-        <v>0</v>
+        <v>2439150</v>
       </c>
       <c r="F113" s="15">
-        <v>2439150</v>
+        <v>2670727</v>
       </c>
       <c r="G113" s="15">
-        <v>2670727</v>
+        <v>16809634</v>
       </c>
       <c r="H113" s="15">
-        <v>16809634</v>
+        <v>13527147</v>
       </c>
       <c r="I113" s="15">
-        <v>13527147</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28112848</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>50</v>
       </c>
@@ -2883,7 +2883,7 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>14</v>
       </c>
@@ -2891,23 +2891,23 @@
         <v>33</v>
       </c>
       <c r="D115" s="11"/>
-      <c r="E115" s="11" t="s">
-        <v>13</v>
+      <c r="E115" s="11">
+        <v>531861</v>
       </c>
       <c r="F115" s="11">
-        <v>531861</v>
+        <v>49953</v>
       </c>
       <c r="G115" s="11">
-        <v>49953</v>
-      </c>
-      <c r="H115" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I115" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>15</v>
       </c>
@@ -2918,42 +2918,42 @@
       <c r="E116" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="13" t="s">
-        <v>13</v>
+      <c r="F116" s="13">
+        <v>1255471</v>
       </c>
       <c r="G116" s="13">
-        <v>1255471</v>
+        <v>6117215</v>
       </c>
       <c r="H116" s="13">
-        <v>6117215</v>
+        <v>5415477</v>
       </c>
       <c r="I116" s="13">
-        <v>5415477</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1971378</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
       <c r="E117" s="17">
-        <v>0</v>
+        <v>531861</v>
       </c>
       <c r="F117" s="17">
-        <v>531861</v>
+        <v>1305424</v>
       </c>
       <c r="G117" s="17">
-        <v>1305424</v>
+        <v>6117215</v>
       </c>
       <c r="H117" s="17">
-        <v>6117215</v>
+        <v>5415477</v>
       </c>
       <c r="I117" s="17">
-        <v>5415477</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1971378</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="18" t="s">
         <v>52</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="16" t="s">
         <v>53</v>
       </c>
@@ -2987,26 +2987,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15">
-        <v>0</v>
+        <v>2971011</v>
       </c>
       <c r="F120" s="15">
-        <v>2971011</v>
+        <v>3976151</v>
       </c>
       <c r="G120" s="15">
-        <v>3976151</v>
+        <v>22926849</v>
       </c>
       <c r="H120" s="15">
-        <v>22926849</v>
+        <v>18942624</v>
       </c>
       <c r="I120" s="15">
-        <v>18942624</v>
+        <v>30084226</v>
       </c>
     </row>
   </sheetData>
